--- a/data/Sondage.xlsx
+++ b/data/Sondage.xlsx
@@ -19,37 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="47">
-  <si>
-    <t>::1</t>
-  </si>
-  <si>
-    <t>cabinet</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>off</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>0-5</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>oui</t>
-  </si>
-  <si>
-    <t>5mg</t>
-  </si>
-  <si>
-    <t>rtfm</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="56">
   <si>
     <t>IP</t>
   </si>
@@ -160,6 +130,63 @@
   </si>
   <si>
     <t>Atteinte multi-viscérale sévère</t>
+  </si>
+  <si>
+    <t>Anti-H1</t>
+  </si>
+  <si>
+    <t>Anti-H1 IV</t>
+  </si>
+  <si>
+    <t>Cortico</t>
+  </si>
+  <si>
+    <t>Cortico IV</t>
+  </si>
+  <si>
+    <t>Signes cut-muq</t>
+  </si>
+  <si>
+    <t>Tachycard</t>
+  </si>
+  <si>
+    <t>HypoTA modérée</t>
+  </si>
+  <si>
+    <t>Hyper-réactivité bronch</t>
+  </si>
+  <si>
+    <t>Toux</t>
+  </si>
+  <si>
+    <t>Nausées</t>
+  </si>
+  <si>
+    <t>Quincke</t>
+  </si>
+  <si>
+    <t>Choc</t>
+  </si>
+  <si>
+    <t>Bradycard</t>
+  </si>
+  <si>
+    <t>Tr Rythme</t>
+  </si>
+  <si>
+    <t>Bronchospasme</t>
+  </si>
+  <si>
+    <t>Tr Conscience</t>
+  </si>
+  <si>
+    <t>V/Diarrhées</t>
+  </si>
+  <si>
+    <t>Adré IM</t>
+  </si>
+  <si>
+    <t>Traitements de première intention</t>
   </si>
 </sst>
 </file>
@@ -496,7 +523,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -626,6 +653,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -671,14 +735,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -691,8 +749,36 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
+      <alignment horizontal="center" textRotation="45"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1016,665 +1102,656 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:DY3"/>
+  <dimension ref="A1:DY8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CB1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="3"/>
-    <col min="2" max="2" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="4.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="4.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="48" width="3.5703125" style="3" customWidth="1"/>
+    <col min="10" max="14" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" customWidth="1"/>
+    <col min="16" max="17" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="2" customWidth="1"/>
+    <col min="19" max="48" width="3.5703125" style="1" customWidth="1"/>
     <col min="49" max="49" width="11.42578125" style="2"/>
-    <col min="50" max="52" width="4.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="50" max="52" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="11.42578125" style="2"/>
-    <col min="54" max="118" width="3.5703125" style="3" customWidth="1"/>
+    <col min="54" max="118" width="3.5703125" style="1" customWidth="1"/>
     <col min="119" max="119" width="11.42578125" style="2"/>
-    <col min="120" max="120" width="4.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="4.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="122" max="126" width="4.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="122" max="125" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="14.42578125" style="1" customWidth="1"/>
     <col min="127" max="127" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="4.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="7.140625" style="3" customWidth="1"/>
+    <col min="128" max="128" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="10.140625" style="1" customWidth="1"/>
     <col min="130" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:129" s="15" customFormat="1" ht="105.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="N1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="BC1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="BH1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BI1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="BK1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="BL1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="BM1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BN1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="BO1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="BP1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="BQ1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="BR1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BS1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="BT1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="BU1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="BV1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="BW1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BX1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="BY1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="BZ1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="CA1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CB1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="CC1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="CD1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="CE1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="CF1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CG1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="CH1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="CI1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="CJ1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="CK1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CL1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="CM1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="CN1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="CO1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="CP1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CQ1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="CR1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="CS1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="CT1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="CU1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CV1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="CW1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="CX1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="CY1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="CZ1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="DA1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="DB1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="DC1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="DD1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="DE1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="DF1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="DG1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="DH1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="DI1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="DJ1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="DK1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="DL1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="DM1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="DN1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="DP1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="DQ1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="DR1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="DS1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="DT1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="DU1" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:129" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="2" t="s">
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="BB2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="6"/>
+      <c r="BE2" s="6"/>
+      <c r="BF2" s="6"/>
+      <c r="BG2" s="6"/>
+      <c r="BH2" s="6"/>
+      <c r="BI2" s="6"/>
+      <c r="BJ2" s="6"/>
+      <c r="BK2" s="6"/>
+      <c r="BL2" s="6"/>
+      <c r="BM2" s="6"/>
+      <c r="BN2" s="6"/>
+      <c r="BO2" s="6"/>
+      <c r="BP2" s="6"/>
+      <c r="BQ2" s="6"/>
+      <c r="BR2" s="6"/>
+      <c r="BS2" s="6"/>
+      <c r="BT2" s="6"/>
+      <c r="BU2" s="6"/>
+      <c r="BV2" s="6"/>
+      <c r="BW2" s="6"/>
+      <c r="BX2" s="6"/>
+      <c r="BY2" s="6"/>
+      <c r="BZ2" s="6"/>
+      <c r="CA2" s="6"/>
+      <c r="CB2" s="6"/>
+      <c r="CC2" s="6"/>
+      <c r="CD2" s="6"/>
+      <c r="CE2" s="6"/>
+      <c r="CF2" s="6"/>
+      <c r="CG2" s="6"/>
+      <c r="CH2" s="6"/>
+      <c r="CI2" s="6"/>
+      <c r="CJ2" s="6"/>
+      <c r="CK2" s="6"/>
+      <c r="CL2" s="6"/>
+      <c r="CM2" s="6"/>
+      <c r="CN2" s="6"/>
+      <c r="CO2" s="6"/>
+      <c r="CP2" s="6"/>
+      <c r="CQ2" s="6"/>
+      <c r="CR2" s="6"/>
+      <c r="CS2" s="6"/>
+      <c r="CT2" s="6"/>
+      <c r="CU2" s="6"/>
+      <c r="CV2" s="6"/>
+      <c r="CW2" s="6"/>
+      <c r="CX2" s="6"/>
+      <c r="CY2" s="6"/>
+      <c r="CZ2" s="6"/>
+      <c r="DA2" s="6"/>
+      <c r="DB2" s="6"/>
+      <c r="DC2" s="6"/>
+      <c r="DD2" s="6"/>
+      <c r="DE2" s="6"/>
+      <c r="DF2" s="6"/>
+      <c r="DG2" s="6"/>
+      <c r="DH2" s="6"/>
+      <c r="DI2" s="6"/>
+      <c r="DJ2" s="6"/>
+      <c r="DK2" s="6"/>
+      <c r="DL2" s="6"/>
+      <c r="DM2" s="6"/>
+      <c r="DN2" s="6"/>
+      <c r="DO2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
-      <c r="BD1" s="1"/>
-      <c r="BE1" s="1"/>
-      <c r="BF1" s="1"/>
-      <c r="BG1" s="1"/>
-      <c r="BH1" s="1"/>
-      <c r="BI1" s="1"/>
-      <c r="BJ1" s="1"/>
-      <c r="BK1" s="1"/>
-      <c r="BL1" s="1"/>
-      <c r="BM1" s="1"/>
-      <c r="BN1" s="1"/>
-      <c r="BO1" s="1"/>
-      <c r="BP1" s="1"/>
-      <c r="BQ1" s="1"/>
-      <c r="BR1" s="1"/>
-      <c r="BS1" s="1"/>
-      <c r="BT1" s="1"/>
-      <c r="BU1" s="1"/>
-      <c r="BV1" s="1"/>
-      <c r="BW1" s="1"/>
-      <c r="BX1" s="1"/>
-      <c r="BY1" s="1"/>
-      <c r="BZ1" s="1"/>
-      <c r="CA1" s="1"/>
-      <c r="CB1" s="1"/>
-      <c r="CC1" s="1"/>
-      <c r="CD1" s="1"/>
-      <c r="CE1" s="1"/>
-      <c r="CF1" s="1"/>
-      <c r="CG1" s="1"/>
-      <c r="CH1" s="1"/>
-      <c r="CI1" s="1"/>
-      <c r="CJ1" s="1"/>
-      <c r="CK1" s="1"/>
-      <c r="CL1" s="1"/>
-      <c r="CM1" s="1"/>
-      <c r="CN1" s="1"/>
-      <c r="CO1" s="1"/>
-      <c r="CP1" s="1"/>
-      <c r="CQ1" s="1"/>
-      <c r="CR1" s="1"/>
-      <c r="CS1" s="1"/>
-      <c r="CT1" s="1"/>
-      <c r="CU1" s="1"/>
-      <c r="CV1" s="1"/>
-      <c r="CW1" s="1"/>
-      <c r="CX1" s="1"/>
-      <c r="CY1" s="1"/>
-      <c r="CZ1" s="1"/>
-      <c r="DA1" s="1"/>
-      <c r="DB1" s="1"/>
-      <c r="DC1" s="1"/>
-      <c r="DD1" s="1"/>
-      <c r="DE1" s="1"/>
-      <c r="DF1" s="1"/>
-      <c r="DG1" s="1"/>
-      <c r="DH1" s="1"/>
-      <c r="DI1" s="1"/>
-      <c r="DJ1" s="1"/>
-      <c r="DK1" s="1"/>
-      <c r="DL1" s="1"/>
-      <c r="DM1" s="1"/>
-      <c r="DN1" s="1"/>
-      <c r="DO1" s="2" t="s">
+      <c r="DP2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="DQ2" s="6"/>
+      <c r="DR2" s="6"/>
+      <c r="DS2" s="6"/>
+      <c r="DT2" s="6"/>
+      <c r="DU2" s="6"/>
+      <c r="DV2" s="6"/>
+      <c r="DW2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="DX2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="DY2" s="6"/>
+    </row>
+    <row r="3" spans="1:129" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="8"/>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
+      <c r="BB3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC3" s="11"/>
+      <c r="BD3" s="11"/>
+      <c r="BE3" s="11"/>
+      <c r="BF3" s="12"/>
+      <c r="BG3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="BH3" s="11"/>
+      <c r="BI3" s="11"/>
+      <c r="BJ3" s="11"/>
+      <c r="BK3" s="12"/>
+      <c r="BL3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="DQ1" s="1"/>
-      <c r="DR1" s="1"/>
-      <c r="DS1" s="1"/>
-      <c r="DT1" s="1"/>
-      <c r="DU1" s="1"/>
-      <c r="DV1" s="1"/>
-      <c r="DW1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="DY1" s="1"/>
+      <c r="BM3" s="11"/>
+      <c r="BN3" s="11"/>
+      <c r="BO3" s="11"/>
+      <c r="BP3" s="12"/>
+      <c r="BQ3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="BR3" s="11"/>
+      <c r="BS3" s="11"/>
+      <c r="BT3" s="11"/>
+      <c r="BU3" s="12"/>
+      <c r="BV3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="BW3" s="11"/>
+      <c r="BX3" s="11"/>
+      <c r="BY3" s="11"/>
+      <c r="BZ3" s="12"/>
+      <c r="CA3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="CB3" s="11"/>
+      <c r="CC3" s="11"/>
+      <c r="CD3" s="11"/>
+      <c r="CE3" s="12"/>
+      <c r="CF3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="CG3" s="11"/>
+      <c r="CH3" s="11"/>
+      <c r="CI3" s="11"/>
+      <c r="CJ3" s="12"/>
+      <c r="CK3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="CL3" s="11"/>
+      <c r="CM3" s="11"/>
+      <c r="CN3" s="11"/>
+      <c r="CO3" s="12"/>
+      <c r="CP3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="CQ3" s="11"/>
+      <c r="CR3" s="11"/>
+      <c r="CS3" s="11"/>
+      <c r="CT3" s="12"/>
+      <c r="CU3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="CV3" s="11"/>
+      <c r="CW3" s="11"/>
+      <c r="CX3" s="11"/>
+      <c r="CY3" s="12"/>
+      <c r="CZ3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="DA3" s="11"/>
+      <c r="DB3" s="11"/>
+      <c r="DC3" s="11"/>
+      <c r="DD3" s="12"/>
+      <c r="DE3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="DF3" s="11"/>
+      <c r="DG3" s="11"/>
+      <c r="DH3" s="11"/>
+      <c r="DI3" s="12"/>
+      <c r="DJ3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="DK3" s="11"/>
+      <c r="DL3" s="11"/>
+      <c r="DM3" s="11"/>
+      <c r="DN3" s="12"/>
+      <c r="DP3" s="8"/>
+      <c r="DQ3" s="8"/>
+      <c r="DR3" s="8"/>
+      <c r="DS3" s="8"/>
+      <c r="DT3" s="8"/>
+      <c r="DU3" s="8"/>
+      <c r="DV3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="DX3" s="8"/>
+      <c r="DY3" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:129" s="7" customFormat="1" ht="105.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="AX2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AY2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AZ2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="DP2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="DQ2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="DR2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="DS2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="DT2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="DU2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="DV2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="DY2" s="7" t="s">
-        <v>33</v>
-      </c>
+    <row r="4" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="G4" s="4"/>
     </row>
-    <row r="3" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5">
-        <v>42225.9684375</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="6">
-        <v>42283</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AU3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AX3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AZ3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="BA3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="BB3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="BC3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="BD3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="BE3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="BG3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="BJ3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="BK3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="BL3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="BM3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="BN3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="BO3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="BP3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="BQ3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="BR3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="BS3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="BT3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="BU3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="BV3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="BW3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="BX3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="BY3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="BZ3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="CA3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="CB3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="CC3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="CD3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="CE3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="CF3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="CG3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="CH3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="CI3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="CJ3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="CK3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="CL3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="CN3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="CO3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="CP3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="CQ3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="CR3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="CS3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="CT3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="CU3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="CY3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="CZ3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="DA3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="DB3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="DC3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="DD3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="DF3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="DG3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="DH3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="DI3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="DJ3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="DK3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="DL3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="DM3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="DN3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="DO3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="DP3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="DQ3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="DR3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="DS3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="DT3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="DU3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="DW3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="DX3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="DY3" s="3" t="s">
-        <v>9</v>
-      </c>
+    <row r="5" spans="1:129" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="14"/>
+    </row>
+    <row r="6" spans="1:129" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:129" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:129" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="DX1:DY1"/>
-    <mergeCell ref="DP1:DV1"/>
-    <mergeCell ref="BB1:DN1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="S1:AV1"/>
+  <mergeCells count="22">
+    <mergeCell ref="CZ3:DD3"/>
+    <mergeCell ref="DE3:DI3"/>
+    <mergeCell ref="DJ3:DN3"/>
+    <mergeCell ref="CA3:CE3"/>
+    <mergeCell ref="CF3:CJ3"/>
+    <mergeCell ref="CK3:CO3"/>
+    <mergeCell ref="CP3:CT3"/>
+    <mergeCell ref="CU3:CY3"/>
+    <mergeCell ref="BB3:BF3"/>
+    <mergeCell ref="BG3:BK3"/>
+    <mergeCell ref="BL3:BP3"/>
+    <mergeCell ref="BQ3:BU3"/>
+    <mergeCell ref="BV3:BZ3"/>
+    <mergeCell ref="DX2:DY2"/>
+    <mergeCell ref="DP2:DV2"/>
+    <mergeCell ref="BB2:DN2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="AX2:AZ2"/>
+    <mergeCell ref="S2:AV2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
